--- a/data/data.imp.xlsx
+++ b/data/data.imp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1E9C4A-6180-4DB5-B6F1-05E307CB1BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E55669-64B1-4978-9C72-467C16F7506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{560E9B7B-FCD3-4621-87D8-6D0A51624E92}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{560E9B7B-FCD3-4621-87D8-6D0A51624E92}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcesQPA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>feb_20</t>
   </si>
@@ -68,12 +68,18 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>feb_21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,12 +105,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FEF7F-BF33-48B0-B39F-EE0AC8E5C436}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -448,374 +475,433 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>-31.901</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>5.8047864239999996</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>-32.061999999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.443</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>-31.815999999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>5.9027236629999997</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>-32.204000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>-31.422000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6.541428571</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>-32.195999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.90700000000000003</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>-31.631</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5.9958571430000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>-31.838000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>-26.274000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2.931</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>-31.728000000000002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.97099999999999997</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>-26.315999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2.16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>-31.626999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.95299999999999996</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>-26.388999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2.9060000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>-31.654</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>-26.3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1.655</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>-31.257000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>1.1519999999999999</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>-27.745000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6.8339999999999996</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>-29.911000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>3.782</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>-28.434000000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>7.0839999999999996</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>-29.783000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3.7090000000000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>-28.023</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>6.5010000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>-29.652999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>3.597</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>-27.887</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>6.3570000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>-29.773</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>3.6160000000000001</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>-27.96757143</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>3.95</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>-28.484999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1.0549999999999999</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>-27.749500000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>4.125</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>-28.280999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1.4630000000000001</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>-27.893428570000001</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>4.4550000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>-28.565999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>-27.255261659999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2.2158855329999998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>-30.456188350000001</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>-0.18134318099999999</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>-27.497142950000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.42194983699999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>-29.989456400000002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>-1.60125629</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>-31.011411240000001</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>-30.677333399999998</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>-1.5916360000000001</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <v>-30.075817600000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>-1.653195142</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-28.354309528814433</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.3563869794000003</v>
+      </c>
+      <c r="D21" s="6">
+        <v>-30.560164708199999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1.0426219760557383</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-28.980907958145814</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2.4214491250000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-30.451195099340005</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.0680679207735797</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>-28.995421643779999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9.0561349419203516</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.imp.xlsx
+++ b/data/data.imp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E55669-64B1-4978-9C72-467C16F7506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2562A9-1B1B-4A7F-ABA4-7EF27C88F4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{560E9B7B-FCD3-4621-87D8-6D0A51624E92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{560E9B7B-FCD3-4621-87D8-6D0A51624E92}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcesQPA" sheetId="1" r:id="rId1"/>
+    <sheet name="sourcesQPB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>feb_20</t>
   </si>
@@ -77,16 +78,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,14 +125,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +466,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,432 +498,905 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-31.901</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>5.8047864239999996</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-32.061999999999998</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.443</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>-31.815999999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5.9027236629999997</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>-32.204000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>-31.422000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>6.541428571</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>-32.195999999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.90700000000000003</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>-31.631</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.9958571430000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>-31.838000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-26.274000000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.931</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-31.728000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-26.315999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-31.626999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-26.388999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-31.654</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-26.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.655</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-31.257000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-27.745000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.8339999999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-29.911000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.782</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-28.434000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-29.783000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.7090000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-28.023</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.5010000000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-29.652999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.597</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-27.887</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.3570000000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-29.773</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-27.96757143</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-28.484999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-27.749500000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-28.280999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-27.893428570000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-28.565999999999999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-27.255261659999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.2158855329999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-30.456188350000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.18134318099999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-27.497142950000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.42194983699999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-29.989456400000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1.60125629</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-31.011411240000001</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>-30.677333399999998</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1.5916360000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>-30.075817600000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1.653195142</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>-28.354309528814433</v>
+      </c>
+      <c r="C21">
+        <v>3.3563869794000003</v>
+      </c>
+      <c r="D21">
+        <v>-30.560164708199999</v>
+      </c>
+      <c r="E21">
+        <v>1.0426219760557383</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>-28.980907958145814</v>
+      </c>
+      <c r="C22">
+        <v>2.4214491250000001</v>
+      </c>
+      <c r="D22">
+        <v>-30.451195099340005</v>
+      </c>
+      <c r="E22">
+        <v>1.0680679207735797</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>-28.995421643779999</v>
+      </c>
+      <c r="E23">
+        <v>9.0561349419203516</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD1A3F0-DD09-4625-8AA4-36C774B972A4}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-34.421999999999997</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.7470000000000008</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-30.294999999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.6772</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-34.531999999999996</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.2844285714285721</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-30.303000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.8672</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>-34.155999999999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.8768571428571432</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-30.356999999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.5931999999999999</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-34.369999999999997</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4.7902857142857149</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-30.247</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.4201999999999999</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>-26.274000000000001</v>
+        <v>-27.506999999999998</v>
       </c>
       <c r="C6" s="4">
-        <v>2.931</v>
+        <v>2.6066787471428574</v>
       </c>
       <c r="D6" s="4">
-        <v>-31.728000000000002</v>
+        <v>-32.199999999999996</v>
       </c>
       <c r="E6" s="4">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>-0.48219175142856996</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-26.315999999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-31.626999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-27.395</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.5187205428571433</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-32.067999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-0.23981634285714137</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-26.388999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-31.654</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-27.465999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.6797384585714288</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-32.412999999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-0.59385911428571292</v>
+      </c>
+      <c r="F8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-26.3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.655</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-31.257000000000001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-27.439</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.1706949942857152</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-32.375</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-0.54000468571428417</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-27.745000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.8339999999999996</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-29.911000000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.782</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-28.439</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.157</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-30.423999999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.67799999999999994</v>
+      </c>
+      <c r="F10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-28.434000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7.0839999999999996</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-29.783000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.7090000000000001</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11">
+        <v>-29.73</v>
+      </c>
+      <c r="C11" s="11">
+        <v>7.5020000000000007</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-30.745000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.55099999999999993</v>
+      </c>
+      <c r="F11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-28.023</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.5010000000000003</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-29.652999999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3.597</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11">
+        <v>-28.606999999999999</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5.032</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-30.212</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="F12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-27.887</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.3570000000000002</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-29.773</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3.6160000000000001</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>-28.125</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5.2840000000000007</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-30.396000000000001</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
-        <v>-27.96757143</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-28.484999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B14" s="11">
+        <v>-27.085000000000001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3.323</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-30.257999999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.68800000000000006</v>
+      </c>
+      <c r="F14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
-        <v>-27.749500000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4.125</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-28.280999999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="11">
+        <v>-27.167999999999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3.9819999999999998</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-30.221</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.6130000000000001</v>
+      </c>
+      <c r="F15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
-        <v>-27.893428570000001</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="D16" s="4">
-        <v>-28.565999999999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="B16" s="12">
+        <v>-27.183</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12">
+        <v>-30.026</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
-        <v>-27.255261659999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.2158855329999998</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-30.456188350000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-0.18134318099999999</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="B17" s="4">
+        <v>-30.770022663305262</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.5614076017377128</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-30.900633386167922</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-7.8972069952680912E-2</v>
+      </c>
+      <c r="F17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
-        <v>-27.497142950000001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.42194983699999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-29.989456400000002</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-1.60125629</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="B18" s="4">
+        <v>-28.078102988679067</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.24392925911331</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-31.067967199999998</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-1.3904300488999999</v>
+      </c>
+      <c r="F18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
-        <v>-31.011411240000001</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>-30.677333399999998</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-1.5916360000000001</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="8">
+        <v>-23.927489085538884</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.5180033451264232</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-31.076000799999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-1.1696590036000001</v>
+      </c>
+      <c r="F19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>-30.075817600000001</v>
-      </c>
-      <c r="E20" s="4">
-        <v>-1.653195142</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>-31.233660199999999</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-1.1088658369</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21" s="6">
-        <v>-28.354309528814433</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3.3563869794000003</v>
-      </c>
-      <c r="D21" s="6">
-        <v>-30.560164708199999</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.0426219760557383</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="B21" s="4">
+        <v>-27.728244623119608</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.1078520000000003</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-30.610003909039996</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.1651883881897251</v>
+      </c>
+      <c r="F21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="6">
-        <v>-28.980907958145814</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2.4214491250000001</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-30.451195099340005</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.0680679207735797</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="B22" s="4">
+        <v>-29.049168812354011</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.5073076000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-30.532699545340002</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.5596624373837618</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
-        <v>-28.995421643779999</v>
-      </c>
-      <c r="E23" s="6">
-        <v>9.0561349419203516</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="B23" s="4">
+        <v>-33.094708554399993</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-0.13016999999999979</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-30.591088284960001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.3054828615720866</v>
+      </c>
+      <c r="F23" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/data.imp.xlsx
+++ b/data/data.imp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2562A9-1B1B-4A7F-ABA4-7EF27C88F4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0560860-278D-447D-88E5-19F91AE372DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{560E9B7B-FCD3-4621-87D8-6D0A51624E92}"/>
   </bookViews>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -134,11 +134,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -149,6 +144,8 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +463,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,62 +555,62 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>-31.631</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>5.9958571430000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>-31.838000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
         <v>-26.274000000000001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>2.931</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>-31.728000000000002</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>0.97099999999999997</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
         <v>-26.315999999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="11">
         <v>2.16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="11">
         <v>-31.626999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="11">
         <v>0.95299999999999996</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1007,22 +1004,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>-34.155999999999999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>4.8768571428571432</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>-30.356999999999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>2.5931999999999999</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1030,16 +1027,16 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>-34.369999999999997</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>4.7902857142857149</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>-30.247</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>1.4201999999999999</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1047,7 +1044,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="4">
@@ -1062,12 +1059,12 @@
       <c r="E6" s="4">
         <v>-0.48219175142856996</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="4">
@@ -1082,7 +1079,7 @@
       <c r="E7" s="4">
         <v>-0.23981634285714137</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1110,16 +1107,16 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>-27.439</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>2.1706949942857152</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>-32.375</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>-0.54000468571428417</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1150,10 +1147,10 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>-29.73</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>7.5020000000000007</v>
       </c>
       <c r="D11" s="5">
@@ -1170,10 +1167,10 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>-28.606999999999999</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>5.032</v>
       </c>
       <c r="D12" s="5">
@@ -1190,16 +1187,16 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>-28.125</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>5.2840000000000007</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>-30.396000000000001</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>0.38700000000000001</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1210,16 +1207,16 @@
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>-27.085000000000001</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>3.323</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>-30.257999999999999</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>0.68800000000000006</v>
       </c>
       <c r="F14" t="s">
@@ -1230,16 +1227,16 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>-27.167999999999999</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>3.9819999999999998</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>-30.221</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>0.6130000000000001</v>
       </c>
       <c r="F15" t="s">
@@ -1250,14 +1247,14 @@
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>-27.183</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
         <v>-30.026</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>0.48200000000000004</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1305,19 +1302,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>-23.927489085538884</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>1.5180033451264232</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="4">
         <v>-31.076000799999999</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>-1.1696590036000001</v>
       </c>
       <c r="F19" t="s">
@@ -1328,12 +1325,12 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
         <v>-31.233660199999999</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <v>-1.1088658369</v>
       </c>
       <c r="F20" s="2" t="s">
